--- a/content/Tableau_de_synthese_WB.xlsx
+++ b/content/Tableau_de_synthese_WB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbach\Documents\MEGAsync\portfolio\portfolio2\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbach\Documents\MEGAsync\portfolio\portfolioWB\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4156C30-64E9-4A75-85FA-066E4A17BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D07F2D-B339-47B8-84CB-E4D9F823135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -101,9 +101,6 @@
     <t>SESSION 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>▣ SLAM</t>
   </si>
   <si>
-    <t>Gestionnaire d'agents Java</t>
-  </si>
-  <si>
     <t>Création site web</t>
   </si>
   <si>
@@ -140,18 +134,6 @@
     <t>Création d'une page FAQ pour Hanover</t>
   </si>
   <si>
-    <t>PPE 1 (Beatmaking)</t>
-  </si>
-  <si>
-    <t>PPE 3 (Beatmaking 2 en React)</t>
-  </si>
-  <si>
-    <t>PPE 2 (Gestionnaire de calendriers)</t>
-  </si>
-  <si>
-    <t>futur</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -161,7 +143,43 @@
     <t>Adresse URL du portfolio : https://portfolio-wb.vercel.app/</t>
   </si>
   <si>
-    <t>en cours…</t>
+    <t>N° candidat : 02244094675</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Beatmaking - HTML/CSS/JS - Site de mixage audio en ligne.</t>
+  </si>
+  <si>
+    <t>Jcalendar - Java/Python/API - Plateforme de gestion de calendriers.</t>
+  </si>
+  <si>
+    <t>MyCalendar - Python/API - Plateforme de gestion de calendriers.</t>
+  </si>
+  <si>
+    <t>23/12/2021 - 27/12/2021</t>
+  </si>
+  <si>
+    <t>Optimisation SEO</t>
+  </si>
+  <si>
+    <t>TP - Java - Gestionnaire d'agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP - Java - Gestionnaire de pigistes </t>
+  </si>
+  <si>
+    <t>Portfolio - HTML/CSS/JS/BOOTSTRAP</t>
+  </si>
+  <si>
+    <t>01/01/2023 - 01/02/2023</t>
+  </si>
+  <si>
+    <t>30/01/2023 - 20/02/2023</t>
+  </si>
+  <si>
+    <t>15/12/2022 - 01/04/2023</t>
   </si>
 </sst>
 </file>
@@ -229,7 +247,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="26"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -633,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -680,25 +698,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -767,8 +779,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1114,98 +1129,98 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.42578125" customWidth="1"/>
     <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>25</v>
+      <c r="H4" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>20</v>
+      <c r="B6" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1227,8 +1242,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1284,16 +1299,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1332,22 +1347,24 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="22">
-        <v>44553</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1387,22 +1404,26 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="17">
+        <v>44977</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="45">
-        <v>44977</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>36</v>
+      <c r="D10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1442,22 +1463,24 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1497,19 +1520,25 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="22">
-        <v>45285</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="B12" s="17">
+        <v>44950</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1548,17 +1577,23 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="22">
+        <v>31</v>
+      </c>
+      <c r="B13" s="17">
         <v>44652</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1596,14 +1631,24 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="17">
+        <v>44984</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1641,14 +1686,30 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="A15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1688,12 +1749,12 @@
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1733,12 +1794,12 @@
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1778,12 +1839,12 @@
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1821,16 +1882,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1869,24 +1930,26 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="22">
+        <v>25</v>
+      </c>
+      <c r="B20" s="17">
         <v>44562</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>36</v>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -1926,21 +1989,23 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="22">
+        <v>26</v>
+      </c>
+      <c r="B21" s="17">
         <v>44562</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1978,14 +2043,26 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="A22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="17">
+        <v>44652</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2025,12 +2102,12 @@
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2070,12 +2147,12 @@
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2115,12 +2192,12 @@
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2160,12 +2237,12 @@
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2203,16 +2280,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="A27" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2251,22 +2328,24 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17">
         <v>44896</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>36</v>
+      <c r="C28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -2306,17 +2385,23 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17">
         <v>44905</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2355,22 +2440,28 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -2411,12 +2502,12 @@
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2456,12 +2547,12 @@
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2501,12 +2592,12 @@
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2546,12 +2637,12 @@
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2697,7 +2788,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>